--- a/gaza_overall/inputs/gaza_overall_data.xlsx
+++ b/gaza_overall/inputs/gaza_overall_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_overall\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_overall\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929CAD01-CBAB-4E4B-B108-673B8B82FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3C3C37-CB15-4DB2-8117-D319E658C5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1473" workbookViewId="0">
-      <selection activeCell="E1485" sqref="E1485"/>
+    <sheetView tabSelected="1" topLeftCell="A1509" workbookViewId="0">
+      <selection activeCell="B1484" sqref="B1484:B1561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58715,13 +58715,13 @@
         <v>20</v>
       </c>
       <c r="M1484">
-        <v>2.9426317550233998</v>
+        <v>2.6565921614183998</v>
       </c>
       <c r="O1484">
-        <v>2.63479760565445</v>
+        <v>2.5715118011377198</v>
       </c>
       <c r="P1484">
-        <v>3.2807225392179999</v>
+        <v>2.7890984538411399</v>
       </c>
       <c r="Q1484" t="s">
         <v>67</v>
@@ -58729,25 +58729,25 @@
     </row>
     <row r="1485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1485" t="s">
         <v>98</v>
       </c>
       <c r="C1485" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1485" t="s">
         <v>20</v>
       </c>
       <c r="M1485">
-        <v>10.4343704122972</v>
+        <v>1.5749388575227501</v>
       </c>
       <c r="O1485">
-        <v>0</v>
+        <v>1.51690125411194</v>
       </c>
       <c r="P1485">
-        <v>47.962912848382601</v>
+        <v>1.6767110519252399</v>
       </c>
       <c r="Q1485" t="s">
         <v>67</v>
@@ -58755,7 +58755,7 @@
     </row>
     <row r="1486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1486" t="s">
         <v>98</v>
@@ -58764,16 +58764,16 @@
         <v>19</v>
       </c>
       <c r="D1486" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M1486">
-        <v>6.4754740772037103</v>
+        <v>28.942872495453098</v>
       </c>
       <c r="O1486">
-        <v>0</v>
+        <v>28.015944359763498</v>
       </c>
       <c r="P1486">
-        <v>37.459343716064197</v>
+        <v>30.386493681321902</v>
       </c>
       <c r="Q1486" t="s">
         <v>67</v>
@@ -58790,16 +58790,16 @@
         <v>31</v>
       </c>
       <c r="D1487" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M1487">
-        <v>1.76127089872543</v>
+        <v>17.158544395116198</v>
       </c>
       <c r="O1487">
-        <v>1.55796982614677</v>
+        <v>16.526239979008999</v>
       </c>
       <c r="P1487">
-        <v>1.99270329575796</v>
+        <v>18.267325670975001</v>
       </c>
       <c r="Q1487" t="s">
         <v>67</v>
@@ -58807,25 +58807,25 @@
     </row>
     <row r="1488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1488" t="s">
         <v>98</v>
       </c>
       <c r="C1488" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1488" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M1488">
-        <v>10.4343704122972</v>
+        <v>165.68745848846299</v>
       </c>
       <c r="O1488">
-        <v>0</v>
+        <v>160.38113075516799</v>
       </c>
       <c r="P1488">
-        <v>47.962912848382601</v>
+        <v>173.95166672640801</v>
       </c>
       <c r="Q1488" t="s">
         <v>67</v>
@@ -58833,7 +58833,7 @@
     </row>
     <row r="1489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1489" t="s">
         <v>98</v>
@@ -58842,16 +58842,16 @@
         <v>31</v>
       </c>
       <c r="D1489" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M1489">
-        <v>6.4754740772037103</v>
+        <v>98.226449798129195</v>
       </c>
       <c r="O1489">
-        <v>0</v>
+        <v>94.606736111718405</v>
       </c>
       <c r="P1489">
-        <v>37.459343716064197</v>
+        <v>104.573820870074</v>
       </c>
       <c r="Q1489" t="s">
         <v>67</v>
@@ -58868,16 +58868,16 @@
         <v>19</v>
       </c>
       <c r="D1490" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M1490">
-        <v>32.0591985942023</v>
+        <v>196.16835802473699</v>
       </c>
       <c r="O1490">
-        <v>28.705426545814301</v>
+        <v>189.88584510506399</v>
       </c>
       <c r="P1490">
-        <v>35.742608716743497</v>
+        <v>205.952901617848</v>
       </c>
       <c r="Q1490" t="s">
         <v>67</v>
@@ -58885,25 +58885,25 @@
     </row>
     <row r="1491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1491" t="s">
         <v>98</v>
       </c>
       <c r="C1491" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1491" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M1491">
-        <v>544.23875022029097</v>
+        <v>116.296800900232</v>
       </c>
       <c r="O1491">
-        <v>478.80515331459799</v>
+        <v>112.01118207995</v>
       </c>
       <c r="P1491">
-        <v>620.211939116606</v>
+        <v>123.811873992164</v>
       </c>
       <c r="Q1491" t="s">
         <v>67</v>
@@ -58911,7 +58911,7 @@
     </row>
     <row r="1492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1492" t="s">
         <v>98</v>
@@ -58920,16 +58920,16 @@
         <v>19</v>
       </c>
       <c r="D1492" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1492">
-        <v>423.986841606741</v>
+        <v>188.198581540482</v>
       </c>
       <c r="O1492">
-        <v>368.292862512422</v>
+        <v>182.17130970165101</v>
       </c>
       <c r="P1492">
-        <v>486.14099318501297</v>
+        <v>197.58560625632501</v>
       </c>
       <c r="Q1492" t="s">
         <v>67</v>
@@ -58946,16 +58946,16 @@
         <v>31</v>
       </c>
       <c r="D1493" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1493">
-        <v>19.188582949271801</v>
+        <v>111.571984327664</v>
       </c>
       <c r="O1493">
-        <v>16.973671263809599</v>
+        <v>107.460478317614</v>
       </c>
       <c r="P1493">
-        <v>21.7099780116788</v>
+        <v>118.781740836388</v>
       </c>
       <c r="Q1493" t="s">
         <v>67</v>
@@ -58963,25 +58963,25 @@
     </row>
     <row r="1494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1494" t="s">
         <v>98</v>
       </c>
       <c r="C1494" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1494" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1494">
-        <v>544.23875022029097</v>
+        <v>167.50512680943399</v>
       </c>
       <c r="O1494">
-        <v>478.80515331459799</v>
+        <v>162.14058619805201</v>
       </c>
       <c r="P1494">
-        <v>620.211939116606</v>
+        <v>175.85999724745699</v>
       </c>
       <c r="Q1494" t="s">
         <v>67</v>
@@ -58989,7 +58989,7 @@
     </row>
     <row r="1495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1495" t="s">
         <v>98</v>
@@ -58998,16 +58998,16 @@
         <v>31</v>
       </c>
       <c r="D1495" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1495">
-        <v>423.986841606741</v>
+        <v>99.304039542750004</v>
       </c>
       <c r="O1495">
-        <v>368.292862512422</v>
+        <v>95.644615917163406</v>
       </c>
       <c r="P1495">
-        <v>486.14099318501297</v>
+        <v>105.721044221391</v>
       </c>
       <c r="Q1495" t="s">
         <v>67</v>
@@ -59024,16 +59024,16 @@
         <v>19</v>
       </c>
       <c r="D1496" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M1496">
-        <v>183.527296300144</v>
+        <v>387.58281428693698</v>
       </c>
       <c r="O1496">
-        <v>164.32816645792201</v>
+        <v>375.170037513355</v>
       </c>
       <c r="P1496">
-        <v>204.61348468280701</v>
+        <v>406.91478494987501</v>
       </c>
       <c r="Q1496" t="s">
         <v>67</v>
@@ -59041,25 +59041,25 @@
     </row>
     <row r="1497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1497" t="s">
         <v>98</v>
       </c>
       <c r="C1497" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1497" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M1497">
-        <v>3130.5360293346498</v>
+        <v>229.77529016068701</v>
       </c>
       <c r="O1497">
-        <v>2764.73102696459</v>
+        <v>221.307909284121</v>
       </c>
       <c r="P1497">
-        <v>3566.7522831721799</v>
+        <v>244.62331768088299</v>
       </c>
       <c r="Q1497" t="s">
         <v>67</v>
@@ -59067,7 +59067,7 @@
     </row>
     <row r="1498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1498" t="s">
         <v>98</v>
@@ -59076,16 +59076,16 @@
         <v>19</v>
       </c>
       <c r="D1498" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M1498">
-        <v>2442.1374220541802</v>
+        <v>302.71168576162302</v>
       </c>
       <c r="O1498">
-        <v>2127.9183059554998</v>
+        <v>293.01700260332399</v>
       </c>
       <c r="P1498">
-        <v>2792.2733371811501</v>
+        <v>317.81042908242398</v>
       </c>
       <c r="Q1498" t="s">
         <v>67</v>
@@ -59102,16 +59102,16 @@
         <v>31</v>
       </c>
       <c r="D1499" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M1499">
-        <v>109.847684999454</v>
+        <v>179.46013823877601</v>
       </c>
       <c r="O1499">
-        <v>97.168118104417104</v>
+        <v>172.84690606065001</v>
       </c>
       <c r="P1499">
-        <v>124.281758182799</v>
+        <v>191.05681196937601</v>
       </c>
       <c r="Q1499" t="s">
         <v>67</v>
@@ -59119,25 +59119,25 @@
     </row>
     <row r="1500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1500" t="s">
         <v>98</v>
       </c>
       <c r="C1500" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1500" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M1500">
-        <v>3130.5360293346498</v>
+        <v>153.383242161894</v>
       </c>
       <c r="O1500">
-        <v>2764.73102696459</v>
+        <v>148.47097083410901</v>
       </c>
       <c r="P1500">
-        <v>3566.7522831721799</v>
+        <v>161.03373704545899</v>
       </c>
       <c r="Q1500" t="s">
         <v>67</v>
@@ -59145,7 +59145,7 @@
     </row>
     <row r="1501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1501" t="s">
         <v>98</v>
@@ -59154,16 +59154,16 @@
         <v>31</v>
       </c>
       <c r="D1501" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M1501">
-        <v>2442.1374220541802</v>
+        <v>90.931996142234397</v>
       </c>
       <c r="O1501">
-        <v>2127.9183059554998</v>
+        <v>87.581088197936793</v>
       </c>
       <c r="P1501">
-        <v>2792.2733371811501</v>
+        <v>96.808001261157301</v>
       </c>
       <c r="Q1501" t="s">
         <v>67</v>
@@ -59180,16 +59180,16 @@
         <v>19</v>
       </c>
       <c r="D1502" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1502">
-        <v>217.29012380514899</v>
+        <v>116.19095190203601</v>
       </c>
       <c r="O1502">
-        <v>194.55900214385201</v>
+        <v>112.469805618181</v>
       </c>
       <c r="P1502">
-        <v>242.25545908014999</v>
+        <v>121.98635869168299</v>
       </c>
       <c r="Q1502" t="s">
         <v>67</v>
@@ -59197,25 +59197,25 @@
     </row>
     <row r="1503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1503" t="s">
         <v>98</v>
       </c>
       <c r="C1503" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1503" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1503">
-        <v>3743.0948692110501</v>
+        <v>68.882852136915901</v>
       </c>
       <c r="O1503">
-        <v>3308.5309098491598</v>
+        <v>66.344470640369593</v>
       </c>
       <c r="P1503">
-        <v>4251.6544286627704</v>
+        <v>73.334046534204006</v>
       </c>
       <c r="Q1503" t="s">
         <v>67</v>
@@ -59223,7 +59223,7 @@
     </row>
     <row r="1504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1504" t="s">
         <v>98</v>
@@ -59232,16 +59232,16 @@
         <v>19</v>
       </c>
       <c r="D1504" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1504">
-        <v>2928.05415527476</v>
+        <v>80.536688682999795</v>
       </c>
       <c r="O1504">
-        <v>2558.6863560689999</v>
+        <v>77.957410392385498</v>
       </c>
       <c r="P1504">
-        <v>3342.1336110928901</v>
+        <v>84.553721548026004</v>
       </c>
       <c r="Q1504" t="s">
         <v>67</v>
@@ -59258,16 +59258,16 @@
         <v>31</v>
       </c>
       <c r="D1505" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1505">
-        <v>130.05595110062001</v>
+        <v>47.745514838584299</v>
       </c>
       <c r="O1505">
-        <v>115.043771899154</v>
+        <v>45.9860590720251</v>
       </c>
       <c r="P1505">
-        <v>147.145406523601</v>
+        <v>50.830819258365203</v>
       </c>
       <c r="Q1505" t="s">
         <v>67</v>
@@ -59275,25 +59275,25 @@
     </row>
     <row r="1506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1506" t="s">
         <v>98</v>
       </c>
       <c r="C1506" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1506" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M1506">
-        <v>3743.0948692110501</v>
+        <v>34.955160018663101</v>
       </c>
       <c r="O1506">
-        <v>3308.5309098491598</v>
+        <v>33.8356815939173</v>
       </c>
       <c r="P1506">
-        <v>4251.6544286627704</v>
+        <v>36.698663866330698</v>
       </c>
       <c r="Q1506" t="s">
         <v>67</v>
@@ -59301,7 +59301,7 @@
     </row>
     <row r="1507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1507" t="s">
         <v>98</v>
@@ -59310,16 +59310,16 @@
         <v>31</v>
       </c>
       <c r="D1507" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M1507">
-        <v>2928.05415527476</v>
+        <v>20.722879704246701</v>
       </c>
       <c r="O1507">
-        <v>2558.6863560689999</v>
+        <v>19.9592270277887</v>
       </c>
       <c r="P1507">
-        <v>3342.1336110928901</v>
+        <v>22.0619875253321</v>
       </c>
       <c r="Q1507" t="s">
         <v>67</v>
@@ -59336,16 +59336,16 @@
         <v>19</v>
       </c>
       <c r="D1508" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M1508">
-        <v>208.462228540079</v>
+        <v>12.7236782467934</v>
       </c>
       <c r="O1508">
-        <v>186.65460932688899</v>
+        <v>12.316188100185901</v>
       </c>
       <c r="P1508">
-        <v>232.41329146249601</v>
+        <v>13.358313647344399</v>
       </c>
       <c r="Q1508" t="s">
         <v>67</v>
@@ -59353,25 +59353,25 @@
     </row>
     <row r="1509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1509" t="s">
         <v>98</v>
       </c>
       <c r="C1509" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1509" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M1509">
-        <v>3598.8262699612101</v>
+        <v>7.5431282123457901</v>
       </c>
       <c r="O1509">
-        <v>3184.09796974457</v>
+        <v>7.2651586381150803</v>
       </c>
       <c r="P1509">
-        <v>4089.59428417459</v>
+        <v>8.0305634592208897</v>
       </c>
       <c r="Q1509" t="s">
         <v>67</v>
@@ -59379,7 +59379,7 @@
     </row>
     <row r="1510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1510" t="s">
         <v>98</v>
@@ -59388,16 +59388,16 @@
         <v>19</v>
       </c>
       <c r="D1510" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M1510">
-        <v>2816.89840042576</v>
+        <v>9.7730837776880204</v>
       </c>
       <c r="O1510">
-        <v>2459.4958087366299</v>
+        <v>0</v>
       </c>
       <c r="P1510">
-        <v>3219.7393708730401</v>
+        <v>48.5950969823799</v>
       </c>
       <c r="Q1510" t="s">
         <v>67</v>
@@ -59405,7 +59405,7 @@
     </row>
     <row r="1511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1511" t="s">
         <v>98</v>
@@ -59414,16 +59414,16 @@
         <v>31</v>
       </c>
       <c r="D1511" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M1511">
-        <v>124.77213840444399</v>
+        <v>9.7730837776880204</v>
       </c>
       <c r="O1511">
-        <v>110.36986242071301</v>
+        <v>0</v>
       </c>
       <c r="P1511">
-        <v>141.16729663632699</v>
+        <v>48.5950969823799</v>
       </c>
       <c r="Q1511" t="s">
         <v>67</v>
@@ -59437,19 +59437,19 @@
         <v>98</v>
       </c>
       <c r="C1512" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1512" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M1512">
-        <v>3598.8262699612101</v>
+        <v>544.68099452491799</v>
       </c>
       <c r="O1512">
-        <v>3184.09796974457</v>
+        <v>473.93746196508101</v>
       </c>
       <c r="P1512">
-        <v>4089.59428417459</v>
+        <v>624.28643150868004</v>
       </c>
       <c r="Q1512" t="s">
         <v>67</v>
@@ -59457,7 +59457,7 @@
     </row>
     <row r="1513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1513" t="s">
         <v>98</v>
@@ -59466,16 +59466,16 @@
         <v>31</v>
       </c>
       <c r="D1513" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M1513">
-        <v>2816.89840042576</v>
+        <v>544.68099452491799</v>
       </c>
       <c r="O1513">
-        <v>2459.4958087366299</v>
+        <v>473.93746196508101</v>
       </c>
       <c r="P1513">
-        <v>3219.7393708730401</v>
+        <v>624.28643150868004</v>
       </c>
       <c r="Q1513" t="s">
         <v>67</v>
@@ -59483,7 +59483,7 @@
     </row>
     <row r="1514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1514" t="s">
         <v>98</v>
@@ -59492,16 +59492,16 @@
         <v>19</v>
       </c>
       <c r="D1514" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1514">
-        <v>185.54067592200201</v>
+        <v>3133.5011578687199</v>
       </c>
       <c r="O1514">
-        <v>166.13092271442301</v>
+        <v>2732.8154234898702</v>
       </c>
       <c r="P1514">
-        <v>206.858189578061</v>
+        <v>3597.1447496752799</v>
       </c>
       <c r="Q1514" t="s">
         <v>67</v>
@@ -59515,19 +59515,19 @@
         <v>98</v>
       </c>
       <c r="C1515" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1515" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1515">
-        <v>3201.2023745115198</v>
+        <v>3133.5011578687199</v>
       </c>
       <c r="O1515">
-        <v>2831.5409946169402</v>
+        <v>2732.8154234898702</v>
       </c>
       <c r="P1515">
-        <v>3637.2839860713498</v>
+        <v>3597.1447496752799</v>
       </c>
       <c r="Q1515" t="s">
         <v>67</v>
@@ -59535,7 +59535,7 @@
     </row>
     <row r="1516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1516" t="s">
         <v>98</v>
@@ -59544,16 +59544,16 @@
         <v>19</v>
       </c>
       <c r="D1516" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M1516">
-        <v>2505.25171499928</v>
+        <v>3747.6667803027899</v>
       </c>
       <c r="O1516">
-        <v>2188.5844396579701</v>
+        <v>3269.38849832182</v>
       </c>
       <c r="P1516">
-        <v>2862.32799584345</v>
+        <v>4295.8856840756498</v>
       </c>
       <c r="Q1516" t="s">
         <v>67</v>
@@ -59561,7 +59561,7 @@
     </row>
     <row r="1517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1517" t="s">
         <v>98</v>
@@ -59570,16 +59570,16 @@
         <v>31</v>
       </c>
       <c r="D1517" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M1517">
-        <v>111.05276508805601</v>
+        <v>3747.6667803027899</v>
       </c>
       <c r="O1517">
-        <v>98.234097459149098</v>
+        <v>3269.38849832182</v>
       </c>
       <c r="P1517">
-        <v>125.645186753581</v>
+        <v>4295.8856840756498</v>
       </c>
       <c r="Q1517" t="s">
         <v>67</v>
@@ -59593,19 +59593,19 @@
         <v>98</v>
       </c>
       <c r="C1518" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1518" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M1518">
-        <v>3201.2023745115198</v>
+        <v>3603.4384181977898</v>
       </c>
       <c r="O1518">
-        <v>2831.5409946169402</v>
+        <v>3145.7539970753201</v>
       </c>
       <c r="P1518">
-        <v>3637.2839860713498</v>
+        <v>4128.6947168312599</v>
       </c>
       <c r="Q1518" t="s">
         <v>67</v>
@@ -59613,7 +59613,7 @@
     </row>
     <row r="1519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1519" t="s">
         <v>98</v>
@@ -59622,16 +59622,16 @@
         <v>31</v>
       </c>
       <c r="D1519" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M1519">
-        <v>2505.25171499928</v>
+        <v>3603.4384181977898</v>
       </c>
       <c r="O1519">
-        <v>2188.5844396579701</v>
+        <v>3145.7539970753201</v>
       </c>
       <c r="P1519">
-        <v>2862.32799584345</v>
+        <v>4128.6947168312599</v>
       </c>
       <c r="Q1519" t="s">
         <v>67</v>
@@ -59639,7 +59639,7 @@
     </row>
     <row r="1520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1520" t="s">
         <v>98</v>
@@ -59648,16 +59648,16 @@
         <v>19</v>
       </c>
       <c r="D1520" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1520">
-        <v>429.31448552236202</v>
+        <v>3205.2519773465701</v>
       </c>
       <c r="O1520">
-        <v>384.40310330916498</v>
+        <v>2797.87332137771</v>
       </c>
       <c r="P1520">
-        <v>478.640151511174</v>
+        <v>3671.6103632213399</v>
       </c>
       <c r="Q1520" t="s">
         <v>67</v>
@@ -59671,19 +59671,19 @@
         <v>98</v>
       </c>
       <c r="C1521" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1521" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1521">
-        <v>7404.7580758856202</v>
+        <v>3205.2519773465701</v>
       </c>
       <c r="O1521">
-        <v>6548.7539274215897</v>
+        <v>2797.87332137771</v>
       </c>
       <c r="P1521">
-        <v>8412.8938469635905</v>
+        <v>3671.6103632213399</v>
       </c>
       <c r="Q1521" t="s">
         <v>67</v>
@@ -59691,7 +59691,7 @@
     </row>
     <row r="1522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1522" t="s">
         <v>98</v>
@@ -59703,13 +59703,13 @@
         <v>59</v>
       </c>
       <c r="M1522">
-        <v>5794.4281692345903</v>
+        <v>7414.0597940113903</v>
       </c>
       <c r="O1522">
-        <v>5063.4813564505403</v>
+        <v>6470.9667041622697</v>
       </c>
       <c r="P1522">
-        <v>6618.7763430201703</v>
+        <v>8494.7659800582205</v>
       </c>
       <c r="Q1522" t="s">
         <v>67</v>
@@ -59717,7 +59717,7 @@
     </row>
     <row r="1523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1523" t="s">
         <v>98</v>
@@ -59729,13 +59729,13 @@
         <v>59</v>
       </c>
       <c r="M1523">
-        <v>256.96015427720499</v>
+        <v>7414.0597940113903</v>
       </c>
       <c r="O1523">
-        <v>227.299597793624</v>
+        <v>6470.9667041622697</v>
       </c>
       <c r="P1523">
-        <v>290.72492293900302</v>
+        <v>8494.7659800582205</v>
       </c>
       <c r="Q1523" t="s">
         <v>67</v>
@@ -59749,19 +59749,19 @@
         <v>98</v>
       </c>
       <c r="C1524" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1524" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1524">
-        <v>7404.7580758856202</v>
+        <v>5769.4555439274</v>
       </c>
       <c r="O1524">
-        <v>6548.7539274215897</v>
+        <v>5028.7979709275196</v>
       </c>
       <c r="P1524">
-        <v>8412.8938469635905</v>
+        <v>6615.4584404139096</v>
       </c>
       <c r="Q1524" t="s">
         <v>67</v>
@@ -59769,7 +59769,7 @@
     </row>
     <row r="1525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1525" t="s">
         <v>98</v>
@@ -59778,16 +59778,16 @@
         <v>31</v>
       </c>
       <c r="D1525" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1525">
-        <v>5794.4281692345903</v>
+        <v>5769.4555439274</v>
       </c>
       <c r="O1525">
-        <v>5063.4813564505403</v>
+        <v>5028.7979709275196</v>
       </c>
       <c r="P1525">
-        <v>6618.7763430201703</v>
+        <v>6615.4584404139096</v>
       </c>
       <c r="Q1525" t="s">
         <v>67</v>
@@ -59795,7 +59795,7 @@
     </row>
     <row r="1526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1526" t="s">
         <v>98</v>
@@ -59804,16 +59804,16 @@
         <v>19</v>
       </c>
       <c r="D1526" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M1526">
-        <v>335.30514471714099</v>
+        <v>2886.0717620655701</v>
       </c>
       <c r="O1526">
-        <v>300.22825348641499</v>
+        <v>2511.3620637069298</v>
       </c>
       <c r="P1526">
-        <v>373.82969986352498</v>
+        <v>3307.5944309834899</v>
       </c>
       <c r="Q1526" t="s">
         <v>67</v>
@@ -59827,19 +59827,19 @@
         <v>98</v>
       </c>
       <c r="C1527" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1527" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M1527">
-        <v>5762.7847482411098</v>
+        <v>2886.0717620655701</v>
       </c>
       <c r="O1527">
-        <v>5093.5286644592898</v>
+        <v>2511.3620637069298</v>
       </c>
       <c r="P1527">
-        <v>6549.0882783630004</v>
+        <v>3307.5944309834899</v>
       </c>
       <c r="Q1527" t="s">
         <v>67</v>
@@ -59847,7 +59847,7 @@
     </row>
     <row r="1528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1528" t="s">
         <v>98</v>
@@ -59856,16 +59856,16 @@
         <v>19</v>
       </c>
       <c r="D1528" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M1528">
-        <v>4505.07758810422</v>
+        <v>2116.0334695233701</v>
       </c>
       <c r="O1528">
-        <v>3933.3836770623402</v>
+        <v>1823.2844232006</v>
       </c>
       <c r="P1528">
-        <v>5143.6228681980701</v>
+        <v>2458.9143466311998</v>
       </c>
       <c r="Q1528" t="s">
         <v>67</v>
@@ -59873,7 +59873,7 @@
     </row>
     <row r="1529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1529" t="s">
         <v>98</v>
@@ -59882,16 +59882,16 @@
         <v>31</v>
       </c>
       <c r="D1529" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M1529">
-        <v>200.69218398634499</v>
+        <v>2116.0334695233701</v>
       </c>
       <c r="O1529">
-        <v>177.52656176882999</v>
+        <v>1823.2844232006</v>
       </c>
       <c r="P1529">
-        <v>227.06329659557801</v>
+        <v>2458.9143466311998</v>
       </c>
       <c r="Q1529" t="s">
         <v>67</v>
@@ -59905,19 +59905,19 @@
         <v>98</v>
       </c>
       <c r="C1530" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1530" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M1530">
-        <v>5762.7847482411098</v>
+        <v>1416.48513790879</v>
       </c>
       <c r="O1530">
-        <v>5093.5286644592898</v>
+        <v>1193.83327230347</v>
       </c>
       <c r="P1530">
-        <v>6549.0882783630004</v>
+        <v>1670.98361552192</v>
       </c>
       <c r="Q1530" t="s">
         <v>67</v>
@@ -59925,7 +59925,7 @@
     </row>
     <row r="1531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1531" t="s">
         <v>98</v>
@@ -59934,16 +59934,16 @@
         <v>31</v>
       </c>
       <c r="D1531" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M1531">
-        <v>4505.07758810422</v>
+        <v>1416.48513790879</v>
       </c>
       <c r="O1531">
-        <v>3933.3836770623402</v>
+        <v>1193.83327230347</v>
       </c>
       <c r="P1531">
-        <v>5143.6228681980701</v>
+        <v>1670.98361552192</v>
       </c>
       <c r="Q1531" t="s">
         <v>67</v>
@@ -59951,7 +59951,7 @@
     </row>
     <row r="1532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1532" t="s">
         <v>98</v>
@@ -59960,16 +59960,16 @@
         <v>19</v>
       </c>
       <c r="D1532" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M1532">
-        <v>169.89826501371999</v>
+        <v>501.20730702905598</v>
       </c>
       <c r="O1532">
-        <v>152.124893336996</v>
+        <v>317.39437242390699</v>
       </c>
       <c r="P1532">
-        <v>189.41855923800799</v>
+        <v>690.99044274306095</v>
       </c>
       <c r="Q1532" t="s">
         <v>67</v>
@@ -59983,19 +59983,19 @@
         <v>98</v>
       </c>
       <c r="C1533" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1533" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M1533">
-        <v>2883.74143264657</v>
+        <v>501.20730702905598</v>
       </c>
       <c r="O1533">
-        <v>2536.6222673253301</v>
+        <v>317.39437242390699</v>
       </c>
       <c r="P1533">
-        <v>3286.2062899205098</v>
+        <v>690.99044274306095</v>
       </c>
       <c r="Q1533" t="s">
         <v>67</v>
@@ -60003,7 +60003,7 @@
     </row>
     <row r="1534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1534" t="s">
         <v>98</v>
@@ -60012,16 +60012,16 @@
         <v>19</v>
       </c>
       <c r="D1534" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M1534">
-        <v>2246.4644097042201</v>
+        <v>65.048883723198898</v>
       </c>
       <c r="O1534">
-        <v>1951.2413754880799</v>
+        <v>0</v>
       </c>
       <c r="P1534">
-        <v>2575.8146623820198</v>
+        <v>237.353286716729</v>
       </c>
       <c r="Q1534" t="s">
         <v>67</v>
@@ -60029,7 +60029,7 @@
     </row>
     <row r="1535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1535" t="s">
         <v>98</v>
@@ -60038,16 +60038,16 @@
         <v>31</v>
       </c>
       <c r="D1535" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M1535">
-        <v>101.690219784305</v>
+        <v>65.048883723198898</v>
       </c>
       <c r="O1535">
-        <v>89.952257857000404</v>
+        <v>0</v>
       </c>
       <c r="P1535">
-        <v>115.052395549815</v>
+        <v>237.353286716729</v>
       </c>
       <c r="Q1535" t="s">
         <v>67</v>
@@ -60055,25 +60055,25 @@
     </row>
     <row r="1536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1536" t="s">
         <v>98</v>
       </c>
       <c r="C1536" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1536" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M1536">
-        <v>2883.74143264657</v>
+        <v>5.94948641931766</v>
       </c>
       <c r="O1536">
-        <v>2536.6222673253301</v>
+        <v>0</v>
       </c>
       <c r="P1536">
-        <v>3286.2062899205098</v>
+        <v>36.913928695567797</v>
       </c>
       <c r="Q1536" t="s">
         <v>67</v>
@@ -60090,16 +60090,16 @@
         <v>31</v>
       </c>
       <c r="D1537" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M1537">
-        <v>2246.4644097042201</v>
+        <v>5.94948641931766</v>
       </c>
       <c r="O1537">
-        <v>1951.2413754880799</v>
+        <v>0</v>
       </c>
       <c r="P1537">
-        <v>2575.8146623820198</v>
+        <v>36.913928695567797</v>
       </c>
       <c r="Q1537" t="s">
         <v>67</v>
@@ -60107,7 +60107,7 @@
     </row>
     <row r="1538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1538" t="s">
         <v>98</v>
@@ -60116,16 +60116,16 @@
         <v>19</v>
       </c>
       <c r="D1538" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M1538">
-        <v>128.70142044339201</v>
+        <v>422.90778322676198</v>
       </c>
       <c r="O1538">
-        <v>115.23772685783401</v>
+        <v>363.83991791040199</v>
       </c>
       <c r="P1538">
-        <v>143.48844368895601</v>
+        <v>481.68793537105302</v>
       </c>
       <c r="Q1538" t="s">
         <v>67</v>
@@ -60133,25 +60133,25 @@
     </row>
     <row r="1539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1539" t="s">
         <v>98</v>
       </c>
       <c r="C1539" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1539" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M1539">
-        <v>2116.2447387703701</v>
+        <v>422.90778322676198</v>
       </c>
       <c r="O1539">
-        <v>1821.2736131412701</v>
+        <v>363.83991791040199</v>
       </c>
       <c r="P1539">
-        <v>2439.60051176261</v>
+        <v>481.68793537105302</v>
       </c>
       <c r="Q1539" t="s">
         <v>67</v>
@@ -60168,16 +60168,16 @@
         <v>19</v>
       </c>
       <c r="D1540" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M1540">
-        <v>1633.49432303191</v>
+        <v>2436.39364391551</v>
       </c>
       <c r="O1540">
-        <v>1389.3603420347999</v>
+        <v>2105.51222301504</v>
       </c>
       <c r="P1540">
-        <v>1900.30759761132</v>
+        <v>2770.9756017599698</v>
       </c>
       <c r="Q1540" t="s">
         <v>67</v>
@@ -60185,7 +60185,7 @@
     </row>
     <row r="1541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1541" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1541" t="s">
         <v>98</v>
@@ -60194,16 +60194,16 @@
         <v>31</v>
       </c>
       <c r="D1541" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M1541">
-        <v>77.032427202149094</v>
+        <v>2436.39364391551</v>
       </c>
       <c r="O1541">
-        <v>68.140680290945596</v>
+        <v>2105.51222301504</v>
       </c>
       <c r="P1541">
-        <v>87.154549409203298</v>
+        <v>2770.9756017599698</v>
       </c>
       <c r="Q1541" t="s">
         <v>67</v>
@@ -60211,25 +60211,25 @@
     </row>
     <row r="1542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1542" t="s">
         <v>98</v>
       </c>
       <c r="C1542" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1542" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1542">
-        <v>2116.2447387703701</v>
+        <v>2922.3150148375098</v>
       </c>
       <c r="O1542">
-        <v>1821.2736131412701</v>
+        <v>2545.2363261658202</v>
       </c>
       <c r="P1542">
-        <v>2439.60051176261</v>
+        <v>3316.4690564819298</v>
       </c>
       <c r="Q1542" t="s">
         <v>67</v>
@@ -60246,16 +60246,16 @@
         <v>31</v>
       </c>
       <c r="D1543" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1543">
-        <v>1633.49432303191</v>
+        <v>2922.3150148375098</v>
       </c>
       <c r="O1543">
-        <v>1389.3603420347999</v>
+        <v>2545.2363261658202</v>
       </c>
       <c r="P1543">
-        <v>1900.30759761132</v>
+        <v>3316.4690564819298</v>
       </c>
       <c r="Q1543" t="s">
         <v>67</v>
@@ -60263,7 +60263,7 @@
     </row>
     <row r="1544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1544" t="s">
         <v>98</v>
@@ -60272,16 +60272,16 @@
         <v>19</v>
       </c>
       <c r="D1544" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M1544">
-        <v>89.208204783867401</v>
+        <v>2811.6184065682401</v>
       </c>
       <c r="O1544">
-        <v>79.875969518787599</v>
+        <v>2449.5052132928499</v>
       </c>
       <c r="P1544">
-        <v>99.457693820503593</v>
+        <v>3195.0614854499399</v>
       </c>
       <c r="Q1544" t="s">
         <v>67</v>
@@ -60289,25 +60289,25 @@
     </row>
     <row r="1545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1545" t="s">
         <v>98</v>
       </c>
       <c r="C1545" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1545" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M1545">
-        <v>1418.0451716612099</v>
+        <v>2811.6184065682401</v>
       </c>
       <c r="O1545">
-        <v>1183.81844127963</v>
+        <v>2449.5052132928499</v>
       </c>
       <c r="P1545">
-        <v>1667.08234919029</v>
+        <v>3195.0614854499399</v>
       </c>
       <c r="Q1545" t="s">
         <v>67</v>
@@ -60324,16 +60324,16 @@
         <v>19</v>
       </c>
       <c r="D1546" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M1546">
-        <v>1083.4311650843799</v>
+        <v>2500.4968704132798</v>
       </c>
       <c r="O1546">
-        <v>877.58721511021099</v>
+        <v>2177.56202139687</v>
       </c>
       <c r="P1546">
-        <v>1294.1146415128901</v>
+        <v>2840.3908409240898</v>
       </c>
       <c r="Q1546" t="s">
         <v>67</v>
@@ -60341,7 +60341,7 @@
     </row>
     <row r="1547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1547" t="s">
         <v>98</v>
@@ -60350,16 +60350,16 @@
         <v>31</v>
       </c>
       <c r="D1547" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M1547">
-        <v>53.394317771886698</v>
+        <v>2500.4968704132798</v>
       </c>
       <c r="O1547">
-        <v>47.231085255817902</v>
+        <v>2177.56202139687</v>
       </c>
       <c r="P1547">
-        <v>60.410373597714901</v>
+        <v>2840.3908409240898</v>
       </c>
       <c r="Q1547" t="s">
         <v>67</v>
@@ -60367,25 +60367,25 @@
     </row>
     <row r="1548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1548" t="s">
         <v>98</v>
       </c>
       <c r="C1548" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1548" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M1548">
-        <v>1418.0451716612099</v>
+        <v>5783.3576601056402</v>
       </c>
       <c r="O1548">
-        <v>1183.81844127963</v>
+        <v>5035.3565756408498</v>
       </c>
       <c r="P1548">
-        <v>1667.08234919029</v>
+        <v>6568.1088838057003</v>
       </c>
       <c r="Q1548" t="s">
         <v>67</v>
@@ -60402,16 +60402,16 @@
         <v>31</v>
       </c>
       <c r="D1549" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M1549">
-        <v>1083.4311650843799</v>
+        <v>5783.3576601056402</v>
       </c>
       <c r="O1549">
-        <v>877.58721511021099</v>
+        <v>5035.3565756408498</v>
       </c>
       <c r="P1549">
-        <v>1294.1146415128901</v>
+        <v>6568.1088838057003</v>
       </c>
       <c r="Q1549" t="s">
         <v>67</v>
@@ -60419,7 +60419,7 @@
     </row>
     <row r="1550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1550" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1550" t="s">
         <v>98</v>
@@ -60428,16 +60428,16 @@
         <v>19</v>
       </c>
       <c r="D1550" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M1550">
-        <v>38.718838881886903</v>
+        <v>4495.8371745529603</v>
       </c>
       <c r="O1550">
-        <v>34.668389548084903</v>
+        <v>3907.6232744951499</v>
       </c>
       <c r="P1550">
-        <v>43.167401831815802</v>
+        <v>5105.8917711313597</v>
       </c>
       <c r="Q1550" t="s">
         <v>67</v>
@@ -60445,25 +60445,25 @@
     </row>
     <row r="1551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1551" t="s">
         <v>98</v>
       </c>
       <c r="C1551" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1551" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M1551">
-        <v>505.08139106358902</v>
+        <v>4495.8371745529603</v>
       </c>
       <c r="O1551">
-        <v>312.78265974102197</v>
+        <v>3907.6232744951499</v>
       </c>
       <c r="P1551">
-        <v>691.95683212165</v>
+        <v>5105.8917711313597</v>
       </c>
       <c r="Q1551" t="s">
         <v>67</v>
@@ -60480,16 +60480,16 @@
         <v>19</v>
       </c>
       <c r="D1552" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M1552">
-        <v>359.84961737572502</v>
+        <v>2240.73256982365</v>
       </c>
       <c r="O1552">
-        <v>179.82372305107501</v>
+        <v>1927.5300294086501</v>
       </c>
       <c r="P1552">
-        <v>536.57544431778604</v>
+        <v>2552.6279272911802</v>
       </c>
       <c r="Q1552" t="s">
         <v>67</v>
@@ -60497,7 +60497,7 @@
     </row>
     <row r="1553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1553" t="s">
         <v>98</v>
@@ -60506,16 +60506,16 @@
         <v>31</v>
       </c>
       <c r="D1553" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M1553">
-        <v>23.1746170884925</v>
+        <v>2240.73256982365</v>
       </c>
       <c r="O1553">
-        <v>20.499602975615399</v>
+        <v>1927.5300294086501</v>
       </c>
       <c r="P1553">
-        <v>26.2197802073415</v>
+        <v>2552.6279272911802</v>
       </c>
       <c r="Q1553" t="s">
         <v>67</v>
@@ -60523,25 +60523,25 @@
     </row>
     <row r="1554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1554" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1554" t="s">
         <v>98</v>
       </c>
       <c r="C1554" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1554" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M1554">
-        <v>505.08139106358902</v>
+        <v>1627.1757951815</v>
       </c>
       <c r="O1554">
-        <v>312.78265974102197</v>
+        <v>1369.02252992015</v>
       </c>
       <c r="P1554">
-        <v>691.95683212165</v>
+        <v>1897.6738770479601</v>
       </c>
       <c r="Q1554" t="s">
         <v>67</v>
@@ -60558,16 +60558,16 @@
         <v>31</v>
       </c>
       <c r="D1555" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M1555">
-        <v>359.84961737572502</v>
+        <v>1627.1757951815</v>
       </c>
       <c r="O1555">
-        <v>179.82372305107501</v>
+        <v>1369.02252992015</v>
       </c>
       <c r="P1555">
-        <v>536.57544431778604</v>
+        <v>1897.6738770479601</v>
       </c>
       <c r="Q1555" t="s">
         <v>67</v>
@@ -60575,7 +60575,7 @@
     </row>
     <row r="1556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1556" t="s">
         <v>98</v>
@@ -60584,16 +60584,16 @@
         <v>19</v>
       </c>
       <c r="D1556" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M1556">
-        <v>14.093657353006799</v>
+        <v>1077.63794125305</v>
       </c>
       <c r="O1556">
-        <v>12.6192937955029</v>
+        <v>866.94755143221198</v>
       </c>
       <c r="P1556">
-        <v>15.712934266781</v>
+        <v>1292.83926772827</v>
       </c>
       <c r="Q1556" t="s">
         <v>67</v>
@@ -60601,25 +60601,25 @@
     </row>
     <row r="1557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1557" t="s">
         <v>98</v>
       </c>
       <c r="C1557" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1557" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M1557">
-        <v>68.434192933097904</v>
+        <v>1077.63794125305</v>
       </c>
       <c r="O1557">
-        <v>0</v>
+        <v>866.94755143221198</v>
       </c>
       <c r="P1557">
-        <v>234.50815189614599</v>
+        <v>1292.83926772827</v>
       </c>
       <c r="Q1557" t="s">
         <v>67</v>
@@ -60636,16 +60636,16 @@
         <v>19</v>
       </c>
       <c r="D1558" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M1558">
-        <v>42.2983785890737</v>
+        <v>354.13821125833601</v>
       </c>
       <c r="O1558">
-        <v>0</v>
+        <v>180.652568757003</v>
       </c>
       <c r="P1558">
-        <v>182.66959505281699</v>
+        <v>533.96284997443297</v>
       </c>
       <c r="Q1558" t="s">
         <v>67</v>
@@ -60653,7 +60653,7 @@
     </row>
     <row r="1559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1559" t="s">
         <v>98</v>
@@ -60662,16 +60662,16 @@
         <v>31</v>
       </c>
       <c r="D1559" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M1559">
-        <v>8.4355606202112696</v>
+        <v>354.13821125833601</v>
       </c>
       <c r="O1559">
-        <v>7.46185548312401</v>
+        <v>180.652568757003</v>
       </c>
       <c r="P1559">
-        <v>9.5439999954723191</v>
+        <v>533.96284997443297</v>
       </c>
       <c r="Q1559" t="s">
         <v>67</v>
@@ -60679,25 +60679,25 @@
     </row>
     <row r="1560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1560" t="s">
         <v>98</v>
       </c>
       <c r="C1560" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1560" t="s">
         <v>66</v>
       </c>
       <c r="M1560">
-        <v>68.434192933097904</v>
+        <v>39.5396919031934</v>
       </c>
       <c r="O1560">
         <v>0</v>
       </c>
       <c r="P1560">
-        <v>234.50815189614599</v>
+        <v>180.62206806036099</v>
       </c>
       <c r="Q1560" t="s">
         <v>67</v>
@@ -60717,13 +60717,13 @@
         <v>66</v>
       </c>
       <c r="M1561">
-        <v>42.2983785890737</v>
+        <v>39.5396919031934</v>
       </c>
       <c r="O1561">
         <v>0</v>
       </c>
       <c r="P1561">
-        <v>182.66959505281699</v>
+        <v>180.62206806036099</v>
       </c>
       <c r="Q1561" t="s">
         <v>67</v>
